--- a/Codes/data/MaterialDatabase_FULL.xlsx
+++ b/Codes/data/MaterialDatabase_FULL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisy\Desktop\DATABASES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisy\Desktop\CO2-Topology-Optimization-main2\Codes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842BBD0-F1C9-4A42-97EC-ECA727D2846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFC34B2-3C15-4078-82F5-E1A2EE0C91C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,18 +33,9 @@
     <t>class_id</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
     <t>massDensity</t>
   </si>
   <si>
-    <t>tensileStrength</t>
-  </si>
-  <si>
     <t>A286 Iron</t>
   </si>
   <si>
@@ -328,6 +319,15 @@
   </si>
   <si>
     <t>mat</t>
+  </si>
+  <si>
+    <t>youngsModulus</t>
+  </si>
+  <si>
+    <t>costPerKg</t>
+  </si>
+  <si>
+    <t>yieldStrength</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +771,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -780,33 +780,33 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>1060</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -867,10 +867,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -931,10 +931,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -963,10 +963,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -995,10 +995,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1187,10 +1187,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1283,10 +1283,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1379,10 +1379,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1451,10 +1451,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>1345</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>1350</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>2014</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1679,10 +1679,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>2018</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1778,7 +1778,7 @@
         <v>2024</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2031,10 +2031,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2095,10 +2095,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>3003</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2319,10 +2319,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2479,10 +2479,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2607,10 +2607,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2639,10 +2639,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2674,7 +2674,7 @@
         <v>6061</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2767,10 +2767,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2831,10 +2831,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2895,10 +2895,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2959,10 +2959,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3087,10 +3087,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -3119,10 +3119,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -3215,10 +3215,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -3375,10 +3375,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -3503,10 +3503,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -3535,10 +3535,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -3567,10 +3567,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -3599,10 +3599,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -3727,10 +3727,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -3759,10 +3759,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C94">
         <v>4</v>
